--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ch-elm-hiv-check:invalid hiv code: 1) either start with a letter or the number 0, 2) be a maximum of 2 characters long, 3) have a number in the last place 4) if it starts with 0, it must either consist only of 0 or be followed by a 1. {value.matches('^[A-Za-z][0-9]$|^0$|^01$')}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1125,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1133,10 +1137,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1159,16 +1163,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1218,7 +1222,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
@@ -1233,15 +1237,15 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1267,10 +1271,10 @@
         <v>86</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1294,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>77</v>
@@ -1321,7 +1325,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -1333,10 +1337,10 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -675,42 +675,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the HIV Code.</t>
+    <t>This CH ELM extension enables to provide the HIV Code.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-ext-hiv-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
